--- a/Data/Farmacia-entrenamiento.xlsx
+++ b/Data/Farmacia-entrenamiento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Python\Modelo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Dashboard2\Dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3207CA63-9771-4ADF-9FB2-E4BB86C6EE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA1FE9-CAD7-461C-BA0F-9EFB0178F236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B4B218E8-29A0-4AC9-953F-8373C5594BCC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4B218E8-29A0-4AC9-953F-8373C5594BCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,9 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>MES</t>
-  </si>
   <si>
     <t>PRODUCTOS ALMACENADOS</t>
   </si>
@@ -61,12 +56,15 @@
   <si>
     <t>PRECIO DE VENTA</t>
   </si>
+  <si>
+    <t>MES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +81,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -125,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -133,6 +139,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,49 +456,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7E9E97-DA5C-4CAC-B229-E64E22364428}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.07421875" customWidth="1"/>
-    <col min="2" max="2" width="17.3046875" customWidth="1"/>
-    <col min="3" max="3" width="19.84375" customWidth="1"/>
-    <col min="4" max="4" width="21.921875" customWidth="1"/>
-    <col min="5" max="5" width="18.23046875" customWidth="1"/>
-    <col min="6" max="6" width="16.84375" customWidth="1"/>
-    <col min="7" max="7" width="16.3828125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -517,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -543,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -569,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -595,14 +600,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>13</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>0.4</v>
       </c>
       <c r="D6" s="2">
@@ -621,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -647,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -657,7 +662,7 @@
       <c r="C8" s="2">
         <v>0.4</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>3.99</v>
       </c>
       <c r="E8" s="3">
@@ -673,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -699,7 +704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -725,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -751,7 +756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -777,7 +782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -803,7 +808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -829,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -855,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -881,7 +886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -907,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -933,7 +938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -959,7 +964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>7</v>
       </c>
@@ -985,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>8</v>
       </c>
@@ -1011,7 +1016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>9</v>
       </c>
@@ -1037,7 +1042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>10</v>
       </c>
@@ -1063,10 +1068,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Farmacia-entrenamiento.xlsx
+++ b/Data/Farmacia-entrenamiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Dashboard2\Dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA1FE9-CAD7-461C-BA0F-9EFB0178F236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CCBF46-1063-41DC-BB65-A466786782AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4B218E8-29A0-4AC9-953F-8373C5594BCC}"/>
   </bookViews>
@@ -456,7 +456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7E9E97-DA5C-4CAC-B229-E64E22364428}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -501,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>0.4</v>
